--- a/期权策略日报行情数据.xlsx
+++ b/期权策略日报行情数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD2EDEF5-237B-41D2-AF83-AC33DDA190CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FEF8CF0-6673-4B5A-8856-DFB4D49D646E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{547646AE-1AA1-4900-BEFB-7FB51830AD78}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{22BE720B-2938-4A41-884B-2146CE67092B}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{004EAF27-FB63-4FE0-9E7F-777CBEFEE128}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{F98C7247-BA19-49A2-A0E6-5923935BE40D}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{A9766425-4AE0-4295-B3DC-B0ACEEFE465F}">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{54783435-6304-435F-A952-F28E4CAA68F8}">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -257,31 +257,6 @@
     <t>510050.SH</t>
   </si>
   <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>50ETF</t>
-  </si>
-  <si>
-    <t>收盘价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涨跌幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交量(亿)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变化(亿)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M1809.DCE</t>
   </si>
   <si>
@@ -355,14 +330,40 @@
     <t>涨跌幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>收盘价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨跌幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量(亿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化(亿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -441,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -465,6 +466,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -769,405 +785,324 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" customWidth="1"/>
-    <col min="5" max="5" width="9.4140625" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="9" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="10" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="str">
-        <f>[1]!WSS(B2,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="str">
+        <f>[1]!WSS(C2,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
         <v>上证综指</v>
       </c>
-      <c r="G1" s="1" t="str">
-        <f>[1]!WSS(G2,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+      <c r="H1" s="1" t="str">
+        <f>[1]!WSS(H2,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
         <v>上证50</v>
       </c>
-      <c r="L1" s="1" t="str">
-        <f>[1]!WSS(L2,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+      <c r="M1" s="1" t="str">
+        <f>[1]!WSS(M2,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
         <v>50ETF</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>43313</v>
-      </c>
-      <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:D4,"2018-08-01","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=5")</f>
-        <v>2824.5337</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>43320</v>
       </c>
       <c r="C5" s="3">
-        <v>14951434800</v>
+        <f>[1]!WSD(C2,C4:E4,B9,B10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=2")</f>
+        <v>2744.0695999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.8031978782929836</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43313</v>
-      </c>
-      <c r="G5" s="3">
-        <f>[1]!WSD(G2,G4:I4,"2018-08-01","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=5")</f>
-        <v>2490.2453999999998</v>
+        <v>14768871500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-1.270228475908608</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43320</v>
       </c>
       <c r="H5" s="3">
-        <v>2737226900</v>
+        <f>[1]!WSD(H2,H4:J4,B9,B10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=2")</f>
+        <v>2446.9978000000001</v>
       </c>
       <c r="I5" s="3">
-        <v>-2.1562365343020806</v>
-      </c>
-      <c r="K5" s="2">
-        <v>43313</v>
-      </c>
-      <c r="L5" s="3">
-        <f>[1]!WSD(L2,L4:N4,"2018-08-01","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=5")</f>
-        <v>2.5369999999999999</v>
+        <v>2359092900</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-1.3219642584365032</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43320</v>
       </c>
       <c r="M5" s="3">
-        <v>628102705</v>
+        <f>[1]!WSD(M2,M4:O4,B9,B10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=2")</f>
+        <v>2.4940000000000002</v>
       </c>
       <c r="N5" s="3">
-        <v>-2.2350674373795862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>43314</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2768.0239000000001</v>
+        <v>504680345</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-1.4229249011857545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>43321</v>
       </c>
       <c r="C6" s="3">
-        <v>17417900300</v>
+        <v>2794.3818000000001</v>
       </c>
       <c r="D6" s="3">
-        <v>-2.0006771383184296</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43314</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2440.3126999999999</v>
+        <v>15166033300</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.8334884800298212</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43321</v>
       </c>
       <c r="H6" s="3">
-        <v>2960110900</v>
+        <v>2504.6172000000001</v>
       </c>
       <c r="I6" s="3">
-        <v>-2.0051317030843618</v>
-      </c>
-      <c r="K6" s="2">
-        <v>43314</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2.484</v>
+        <v>2657695900</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.3546976625806515</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43321</v>
       </c>
       <c r="M6" s="3">
-        <v>721197256</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="N6" s="3">
-        <v>-2.0890815924320036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2740.4429</v>
-      </c>
-      <c r="C7" s="3">
-        <v>12700636300</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.99641480696752716</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43315</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2413.5032000000001</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2154621300</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-1.0986092069266262</v>
-      </c>
-      <c r="K7" s="2">
-        <v>43315</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="M7" s="3">
-        <v>449223512</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-1.0869565217391359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>43318</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2705.1565000000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>12975305800</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1.2876166841498504</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43318</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2406.5365000000002</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2572304100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-0.28865509687329149</v>
-      </c>
-      <c r="K8" s="2">
-        <v>43318</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2.4550000000000001</v>
-      </c>
-      <c r="M8" s="3">
-        <v>610752393</v>
-      </c>
-      <c r="N8" s="3">
-        <v>-8.1400081400072447E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>43319</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2779.3739999999998</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14957974300</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.7435566112348653</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43319</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2479.7795999999998</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2975211000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3.0435067159795715</v>
-      </c>
-      <c r="K9" s="2">
-        <v>43319</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="M9" s="3">
-        <v>674778966</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3.0549898167006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>43319</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5">
-        <f>VLOOKUP($B$12,$A$9:$D$9,2,FALSE)</f>
-        <v>2779.3739999999998</v>
+        <v>562950387</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2.2854851643945446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4">
+        <v>43321</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="str">
+        <f>$C$1</f>
+        <v>上证综指</v>
+      </c>
+      <c r="C11" s="7">
+        <f>C6</f>
+        <v>2794.3818000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <f>E6/100</f>
+        <v>1.8334884800298212E-2</v>
+      </c>
+      <c r="E11" s="11">
+        <f>D6/100000000</f>
+        <v>151.66033300000001</v>
+      </c>
+      <c r="F11" s="11">
+        <f>E11-D5/100000000</f>
+        <v>3.9716180000000065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="str">
+        <f>$H$1</f>
+        <v>上证50</v>
+      </c>
+      <c r="C12" s="7">
+        <f>H6</f>
+        <v>2504.6172000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <f>J6/100</f>
+        <v>2.3546976625806515E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <f>I6/100000000</f>
+        <v>26.576958999999999</v>
+      </c>
+      <c r="F12" s="11">
+        <f>E12-I5/100000000</f>
+        <v>2.9860299999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="str">
+        <f>$M$1</f>
+        <v>50ETF</v>
+      </c>
+      <c r="C13" s="9">
+        <f>M6</f>
+        <v>2.5510000000000002</v>
       </c>
       <c r="D13" s="6">
-        <f>VLOOKUP($B$12,$A$9:$D$9,4,FALSE)/100</f>
-        <v>2.7435566112348653E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <f>VLOOKUP($B$12,$A$9:$D$9,3,FALSE)/100000000</f>
-        <v>149.57974300000001</v>
-      </c>
-      <c r="F13" s="7">
-        <f>E13-VLOOKUP(A8,A8:C8,3,FALSE)/100000000</f>
-        <v>19.826684999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5">
-        <f>VLOOKUP($B$12,F9:I9,2,FALSE)</f>
-        <v>2479.7795999999998</v>
-      </c>
-      <c r="D14" s="6">
-        <f>VLOOKUP($B$12,F9:I9,4,FALSE)/100</f>
-        <v>3.0435067159795715E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <f>VLOOKUP($B$12,F9:I9,3,FALSE)/100000000</f>
-        <v>29.752109999999998</v>
-      </c>
-      <c r="F14" s="7">
-        <f>E14-VLOOKUP(A8,F8:I8,3,FALSE)/100000000</f>
-        <v>4.0290689999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5">
-        <f>VLOOKUP($B$12,K9:N9,2,FALSE)</f>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D15" s="6">
-        <f>VLOOKUP($B$12,K9:N9,4,FALSE)/100</f>
-        <v>3.0549898167005998E-2</v>
-      </c>
-      <c r="E15" s="7">
-        <f>VLOOKUP($B$12,K9:N9,3,FALSE)/100000000</f>
-        <v>6.7477896599999996</v>
-      </c>
-      <c r="F15" s="7">
-        <f>E15-VLOOKUP(A8,K8:N8,3,FALSE)/100000000</f>
-        <v>0.64026572999999942</v>
+        <f>O6/100</f>
+        <v>2.2854851643945448E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <f>N6/100000000</f>
+        <v>5.6295038699999997</v>
+      </c>
+      <c r="F13" s="10">
+        <f>E13-N5/100000000</f>
+        <v>0.58270042000000011</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F13" formulaRange="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1182,12 +1117,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="8" width="9.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1213,13 +1143,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1233,10 +1163,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
@@ -1248,10 +1178,10 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>1</v>
@@ -1263,10 +1193,10 @@
         <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1280,13 +1210,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -1298,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>0</v>
@@ -1316,151 +1246,184 @@
         <v>3</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:F4,"2018-08-06","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>3172</v>
+        <f>[1]!WSD(B2,B4:F4,A9,A10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
+        <v>3270</v>
       </c>
       <c r="C5" s="3">
-        <v>250156</v>
+        <v>389142</v>
       </c>
       <c r="D5" s="3">
-        <v>784236</v>
+        <v>711224</v>
       </c>
       <c r="E5" s="3">
-        <v>-57118</v>
+        <v>-38382</v>
       </c>
       <c r="F5" s="3">
-        <v>0.53882725832012679</v>
+        <v>2.7332704995287465</v>
       </c>
       <c r="G5" s="2">
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="H5" s="3">
-        <f>[1]!WSD(H2,H4:L4,"2018-08-06","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>3203</v>
+        <f>[1]!WSD(H2,H4:L4,A9,A10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
+        <v>3289</v>
       </c>
       <c r="I5" s="3">
-        <v>1022506</v>
+        <v>1881458</v>
       </c>
       <c r="J5" s="3">
-        <v>1930268</v>
+        <v>2107088</v>
       </c>
       <c r="K5" s="3">
-        <v>-10086</v>
+        <v>142266</v>
       </c>
       <c r="L5" s="3">
-        <v>0.59673366834170849</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="M5" s="2">
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="N5" s="3">
-        <f>[1]!WSD(N2,N4:R4,"2018-08-06","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>2918</v>
+        <f>[1]!WSD(N2,N4:R4,A9,A10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
+        <v>2979</v>
       </c>
       <c r="O5" s="3">
-        <v>132426</v>
+        <v>179982</v>
       </c>
       <c r="P5" s="3">
-        <v>579118</v>
+        <v>581342</v>
       </c>
       <c r="Q5" s="3">
-        <v>-13272</v>
+        <v>1556</v>
       </c>
       <c r="R5" s="3">
-        <v>0.27491408934707906</v>
+        <v>1.9158398905234348</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="B6" s="3">
-        <v>3197</v>
+        <v>3284</v>
       </c>
       <c r="C6" s="3">
-        <v>267378</v>
+        <v>436638</v>
       </c>
       <c r="D6" s="3">
-        <v>749606</v>
+        <v>616440</v>
       </c>
       <c r="E6" s="3">
-        <v>-34630</v>
+        <v>-94784</v>
       </c>
       <c r="F6" s="3">
-        <v>1.2991128010139417</v>
+        <v>1.9242706393544382</v>
       </c>
       <c r="G6" s="2">
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="H6" s="3">
-        <v>3224</v>
+        <v>3279</v>
       </c>
       <c r="I6" s="3">
-        <v>1034680</v>
+        <v>1820222</v>
       </c>
       <c r="J6" s="3">
-        <v>1964822</v>
+        <v>2212776</v>
       </c>
       <c r="K6" s="3">
-        <v>34554</v>
+        <v>105688</v>
       </c>
       <c r="L6" s="3">
-        <v>1.3199245757385292</v>
+        <v>1.0166358595194085</v>
       </c>
       <c r="M6" s="2">
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="N6" s="3">
-        <v>2932</v>
+        <v>2974</v>
       </c>
       <c r="O6" s="3">
-        <v>119584</v>
+        <v>192716</v>
       </c>
       <c r="P6" s="3">
-        <v>579786</v>
+        <v>594732</v>
       </c>
       <c r="Q6" s="3">
-        <v>668</v>
+        <v>13390</v>
       </c>
       <c r="R6" s="3">
-        <v>1.2081463583016916</v>
+        <v>0.88195386702849388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <f>ETF行情数据!B9</f>
+        <v>43320</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>43319</v>
+        <f>ETF行情数据!B10</f>
+        <v>43321</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1470,27 +1433,27 @@
       </c>
       <c r="B11" s="8">
         <f>B6</f>
-        <v>3197</v>
+        <v>3284</v>
       </c>
       <c r="C11" s="6">
         <f>F6/100</f>
-        <v>1.2991128010139416E-2</v>
+        <v>1.9242706393544383E-2</v>
       </c>
       <c r="D11" s="8">
         <f>C6</f>
-        <v>267378</v>
+        <v>436638</v>
       </c>
       <c r="E11" s="8">
         <f>D11-C5</f>
-        <v>17222</v>
+        <v>47496</v>
       </c>
       <c r="F11" s="8">
         <f>D6</f>
-        <v>749606</v>
+        <v>616440</v>
       </c>
       <c r="G11" s="8">
         <f>E6</f>
-        <v>-34630</v>
+        <v>-94784</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1500,27 +1463,27 @@
       </c>
       <c r="B12" s="8">
         <f>H6</f>
-        <v>3224</v>
+        <v>3279</v>
       </c>
       <c r="C12" s="6">
         <f>L6/100</f>
-        <v>1.3199245757385292E-2</v>
+        <v>1.0166358595194085E-2</v>
       </c>
       <c r="D12" s="8">
         <f>I6</f>
-        <v>1034680</v>
+        <v>1820222</v>
       </c>
       <c r="E12" s="8">
         <f>D12-I5</f>
-        <v>12174</v>
+        <v>-61236</v>
       </c>
       <c r="F12" s="8">
         <f>J6</f>
-        <v>1964822</v>
+        <v>2212776</v>
       </c>
       <c r="G12" s="8">
         <f>K6</f>
-        <v>34554</v>
+        <v>105688</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1530,27 +1493,27 @@
       </c>
       <c r="B13" s="8">
         <f>N6</f>
-        <v>2932</v>
+        <v>2974</v>
       </c>
       <c r="C13" s="6">
         <f>R6/100</f>
-        <v>1.2081463583016917E-2</v>
+        <v>8.8195386702849387E-3</v>
       </c>
       <c r="D13" s="8">
         <f>O6</f>
-        <v>119584</v>
+        <v>192716</v>
       </c>
       <c r="E13" s="8">
         <f>D13-O5</f>
-        <v>-12842</v>
+        <v>12734</v>
       </c>
       <c r="F13" s="8">
         <f>P6</f>
-        <v>579786</v>
+        <v>594732</v>
       </c>
       <c r="G13" s="8">
         <f>Q6</f>
-        <v>668</v>
+        <v>13390</v>
       </c>
     </row>
   </sheetData>
@@ -1563,21 +1526,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C3AB52-8895-463F-A3A1-700EFEF94AC4}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.9140625" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="1" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.58203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.75" bestFit="1" customWidth="1"/>
@@ -1604,13 +1561,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1624,10 +1581,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -1642,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>7</v>
@@ -1660,10 +1617,10 @@
         <v>6</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>7</v>
@@ -1680,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -1698,10 +1655,10 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>4</v>
@@ -1716,10 +1673,10 @@
         <v>3</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>4</v>
@@ -1727,230 +1684,320 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="B5" s="3">
-        <f>[1]!WSD(B2,B4:F4,"2018-08-06","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>4948</v>
+        <f>[1]!WSD(B2,B4:F4,A10,A11,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
+        <v>4942</v>
       </c>
       <c r="C5" s="3">
-        <v>145156</v>
+        <v>56446</v>
       </c>
       <c r="D5" s="3">
-        <v>222556</v>
+        <v>208784</v>
       </c>
       <c r="E5" s="3">
-        <v>-19874</v>
+        <v>-5300</v>
       </c>
       <c r="F5" s="3">
-        <v>0.6304657311368721</v>
+        <v>0.12155591572123178</v>
       </c>
       <c r="H5" s="2">
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="I5" s="3">
-        <f>[1]!WSD(I2,I4:M4,"2018-08-06","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>5164</v>
+        <f>[1]!WSD(I2,I4:M4,A10,A11,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
+        <v>5160</v>
       </c>
       <c r="J5" s="3">
-        <v>827554</v>
+        <v>577394</v>
       </c>
       <c r="K5" s="3">
-        <v>394690</v>
+        <v>380484</v>
       </c>
       <c r="L5" s="3">
-        <v>814</v>
+        <v>-3692</v>
       </c>
       <c r="M5" s="3">
-        <v>1.6135379771743408</v>
+        <v>0.23310023310023309</v>
       </c>
       <c r="O5" s="2">
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="P5" s="3">
-        <f>[1]!WSD(P2,P4:T4,"2018-08-06","","TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>5074</v>
+        <f>[1]!WSD(P2,P4:T4,A10,A11,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
+        <v>5073</v>
       </c>
       <c r="Q5" s="3">
-        <v>51046</v>
+        <v>31636</v>
       </c>
       <c r="R5" s="3">
-        <v>84796</v>
+        <v>81754</v>
       </c>
       <c r="S5" s="3">
-        <v>-1432</v>
+        <v>-2662</v>
       </c>
       <c r="T5" s="3">
-        <v>1.3178913738019169</v>
+        <v>0.17772511848341233</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="B6" s="3">
-        <v>4931</v>
+        <v>4916</v>
       </c>
       <c r="C6" s="3">
-        <v>87390</v>
+        <v>58100</v>
       </c>
       <c r="D6" s="3">
-        <v>214084</v>
+        <v>202378</v>
       </c>
       <c r="E6" s="3">
-        <v>-8472</v>
+        <v>-6406</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.44417524732485358</v>
+        <v>-0.42535953007899535</v>
       </c>
       <c r="H6" s="2">
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="I6" s="3">
-        <v>5138</v>
+        <v>5147</v>
       </c>
       <c r="J6" s="3">
-        <v>599918</v>
+        <v>578700</v>
       </c>
       <c r="K6" s="3">
-        <v>384176</v>
+        <v>388020</v>
       </c>
       <c r="L6" s="3">
-        <v>-10514</v>
+        <v>7536</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.13605442176870747</v>
+        <v>1.9432568985619899E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="P6" s="3">
-        <v>5062</v>
+        <v>5065</v>
       </c>
       <c r="Q6" s="3">
-        <v>29856</v>
+        <v>24470</v>
       </c>
       <c r="R6" s="3">
-        <v>84416</v>
+        <v>82660</v>
       </c>
       <c r="S6" s="3">
-        <v>-380</v>
+        <v>906</v>
       </c>
       <c r="T6" s="3">
-        <v>-3.9494470774091628E-2</v>
-      </c>
+        <v>-3.9471087428458659E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="2">
+        <v>43321</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>43319</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <f>豆粕行情数据!A9</f>
+        <v>43320</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f>豆粕行情数据!A10</f>
+        <v>43321</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="str">
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="str">
         <f>$B$1</f>
         <v>白糖1809</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B12" s="8">
         <f>B6</f>
-        <v>4931</v>
-      </c>
-      <c r="C9" s="6">
+        <v>4916</v>
+      </c>
+      <c r="C12" s="6">
         <f>F6/100</f>
-        <v>-4.441752473248536E-3</v>
-      </c>
-      <c r="D9" s="8">
+        <v>-4.2535953007899535E-3</v>
+      </c>
+      <c r="D12" s="8">
         <f>C6</f>
-        <v>87390</v>
-      </c>
-      <c r="E9" s="8">
-        <f>D9-C5</f>
-        <v>-57766</v>
-      </c>
-      <c r="F9" s="8">
+        <v>58100</v>
+      </c>
+      <c r="E12" s="8">
+        <f>D12-C5</f>
+        <v>1654</v>
+      </c>
+      <c r="F12" s="8">
         <f>D6</f>
-        <v>214084</v>
-      </c>
-      <c r="G9" s="8">
+        <v>202378</v>
+      </c>
+      <c r="G12" s="8">
         <f>E6</f>
-        <v>-8472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="str">
+        <v>-6406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="str">
         <f>$I$1</f>
         <v>白糖1901</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B13" s="8">
         <f>I6</f>
-        <v>5138</v>
-      </c>
-      <c r="C10" s="6">
+        <v>5147</v>
+      </c>
+      <c r="C13" s="6">
         <f>M6/100</f>
-        <v>-1.3605442176870747E-3</v>
-      </c>
-      <c r="D10" s="8">
+        <v>1.9432568985619899E-4</v>
+      </c>
+      <c r="D13" s="8">
         <f>J6</f>
-        <v>599918</v>
-      </c>
-      <c r="E10" s="8">
-        <f>D10-J5</f>
-        <v>-227636</v>
-      </c>
-      <c r="F10" s="8">
+        <v>578700</v>
+      </c>
+      <c r="E13" s="8">
+        <f>D13-J5</f>
+        <v>1306</v>
+      </c>
+      <c r="F13" s="8">
         <f>K6</f>
-        <v>384176</v>
-      </c>
-      <c r="G10" s="8">
+        <v>388020</v>
+      </c>
+      <c r="G13" s="8">
         <f>L6</f>
-        <v>-10514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="str">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="str">
         <f>$P$1</f>
         <v>白糖1905</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B14" s="8">
         <f>P6</f>
-        <v>5062</v>
-      </c>
-      <c r="C11" s="6">
+        <v>5065</v>
+      </c>
+      <c r="C14" s="6">
         <f>T6/100</f>
-        <v>-3.9494470774091627E-4</v>
-      </c>
-      <c r="D11" s="8">
+        <v>-3.9471087428458662E-4</v>
+      </c>
+      <c r="D14" s="8">
         <f>Q6</f>
-        <v>29856</v>
-      </c>
-      <c r="E11" s="8">
-        <f>D11-Q5</f>
-        <v>-21190</v>
-      </c>
-      <c r="F11" s="8">
+        <v>24470</v>
+      </c>
+      <c r="E14" s="8">
+        <f>D14-Q5</f>
+        <v>-7166</v>
+      </c>
+      <c r="F14" s="8">
         <f>R6</f>
-        <v>84416</v>
-      </c>
-      <c r="G11" s="8">
+        <v>82660</v>
+      </c>
+      <c r="G14" s="8">
         <f>S6</f>
-        <v>-380</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>

--- a/期权策略日报行情数据.xlsx
+++ b/期权策略日报行情数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FEF8CF0-6673-4B5A-8856-DFB4D49D646E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CFB6391-D391-4F9B-8441-E2F986D6D173}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -908,98 +908,98 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="C5" s="3">
         <f>[1]!WSD(C2,C4:E4,B9,B10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=2")</f>
-        <v>2744.0695999999998</v>
+        <v>2780.9645999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>14768871500</v>
+        <v>10957107700</v>
       </c>
       <c r="E5" s="3">
-        <v>-1.270228475908608</v>
+        <v>-0.17615310394735184</v>
       </c>
       <c r="G5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="H5" s="3">
         <f>[1]!WSD(H2,H4:J4,B9,B10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=2")</f>
-        <v>2446.9978000000001</v>
+        <v>2469.2002000000002</v>
       </c>
       <c r="I5" s="3">
-        <v>2359092900</v>
+        <v>1707193100</v>
       </c>
       <c r="J5" s="3">
-        <v>-1.3219642584365032</v>
+        <v>-0.3755645633022997</v>
       </c>
       <c r="L5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="M5" s="3">
         <f>[1]!WSD(M2,M4:O4,B9,B10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=3;rows=2")</f>
-        <v>2.4940000000000002</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="N5" s="3">
-        <v>504680345</v>
+        <v>401333810</v>
       </c>
       <c r="O5" s="3">
-        <v>-1.4229249011857545</v>
+        <v>-0.31670625494853555</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="C6" s="3">
-        <v>2794.3818000000001</v>
+        <v>2723.2575999999999</v>
       </c>
       <c r="D6" s="3">
-        <v>15166033300</v>
+        <v>11616178700</v>
       </c>
       <c r="E6" s="3">
-        <v>1.8334884800298212</v>
+        <v>-2.0750713619295924</v>
       </c>
       <c r="G6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="H6" s="3">
-        <v>2504.6172000000001</v>
+        <v>2408.7219</v>
       </c>
       <c r="I6" s="3">
-        <v>2657695900</v>
+        <v>1975617300</v>
       </c>
       <c r="J6" s="3">
-        <v>2.3546976625806515</v>
+        <v>-2.449307269617107</v>
       </c>
       <c r="L6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="M6" s="3">
-        <v>2.5510000000000002</v>
+        <v>2.4540000000000002</v>
       </c>
       <c r="N6" s="3">
-        <v>562950387</v>
+        <v>520405387</v>
       </c>
       <c r="O6" s="3">
-        <v>2.2854851643945446</v>
+        <v>-2.5416997617156323</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="G7" s="2">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="L7" s="2">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1010,7 +1010,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="12">
-        <v>43320</v>
+        <v>43326</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1018,7 +1018,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="4">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>28</v>
@@ -1040,19 +1040,19 @@
       </c>
       <c r="C11" s="7">
         <f>C6</f>
-        <v>2794.3818000000001</v>
+        <v>2723.2575999999999</v>
       </c>
       <c r="D11" s="6">
         <f>E6/100</f>
-        <v>1.8334884800298212E-2</v>
+        <v>-2.0750713619295924E-2</v>
       </c>
       <c r="E11" s="11">
         <f>D6/100000000</f>
-        <v>151.66033300000001</v>
+        <v>116.161787</v>
       </c>
       <c r="F11" s="11">
         <f>E11-D5/100000000</f>
-        <v>3.9716180000000065</v>
+        <v>6.5907100000000014</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1062,19 +1062,19 @@
       </c>
       <c r="C12" s="7">
         <f>H6</f>
-        <v>2504.6172000000001</v>
+        <v>2408.7219</v>
       </c>
       <c r="D12" s="6">
         <f>J6/100</f>
-        <v>2.3546976625806515E-2</v>
+        <v>-2.449307269617107E-2</v>
       </c>
       <c r="E12" s="11">
         <f>I6/100000000</f>
-        <v>26.576958999999999</v>
+        <v>19.756173</v>
       </c>
       <c r="F12" s="11">
         <f>E12-I5/100000000</f>
-        <v>2.9860299999999995</v>
+        <v>2.6842420000000011</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1084,19 +1084,19 @@
       </c>
       <c r="C13" s="9">
         <f>M6</f>
-        <v>2.5510000000000002</v>
+        <v>2.4540000000000002</v>
       </c>
       <c r="D13" s="6">
         <f>O6/100</f>
-        <v>2.2854851643945448E-2</v>
+        <v>-2.5416997617156323E-2</v>
       </c>
       <c r="E13" s="10">
         <f>N6/100000000</f>
-        <v>5.6295038699999997</v>
+        <v>5.2040538700000001</v>
       </c>
       <c r="F13" s="10">
         <f>E13-N5/100000000</f>
-        <v>0.58270042000000011</v>
+        <v>1.1907157699999997</v>
       </c>
     </row>
   </sheetData>
@@ -1112,12 +1112,13 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="8" width="9.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1257,122 +1258,122 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="B5" s="3">
         <f>[1]!WSD(B2,B4:F4,A9,A10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>3270</v>
+        <v>3286</v>
       </c>
       <c r="C5" s="3">
-        <v>389142</v>
+        <v>158794</v>
       </c>
       <c r="D5" s="3">
-        <v>711224</v>
+        <v>368904</v>
       </c>
       <c r="E5" s="3">
-        <v>-38382</v>
+        <v>-33476</v>
       </c>
       <c r="F5" s="3">
-        <v>2.7332704995287465</v>
+        <v>1.3259327782917052</v>
       </c>
       <c r="G5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="H5" s="3">
         <f>[1]!WSD(H2,H4:L4,A9,A10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>3289</v>
+        <v>3260</v>
       </c>
       <c r="I5" s="3">
-        <v>1881458</v>
+        <v>1238714</v>
       </c>
       <c r="J5" s="3">
-        <v>2107088</v>
+        <v>2135920</v>
       </c>
       <c r="K5" s="3">
-        <v>142266</v>
+        <v>25478</v>
       </c>
       <c r="L5" s="3">
-        <v>2.42914979757085</v>
+        <v>1.0539367637941723</v>
       </c>
       <c r="M5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="N5" s="3">
         <f>[1]!WSD(N2,N4:R4,A9,A10,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>2979</v>
+        <v>2941</v>
       </c>
       <c r="O5" s="3">
-        <v>179982</v>
+        <v>144976</v>
       </c>
       <c r="P5" s="3">
-        <v>581342</v>
+        <v>634638</v>
       </c>
       <c r="Q5" s="3">
-        <v>1556</v>
+        <v>5956</v>
       </c>
       <c r="R5" s="3">
-        <v>1.9158398905234348</v>
+        <v>0.37542662116040953</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="B6" s="3">
-        <v>3284</v>
+        <v>3320</v>
       </c>
       <c r="C6" s="3">
-        <v>436638</v>
+        <v>238988</v>
       </c>
       <c r="D6" s="3">
-        <v>616440</v>
+        <v>314722</v>
       </c>
       <c r="E6" s="3">
-        <v>-94784</v>
+        <v>-54182</v>
       </c>
       <c r="F6" s="3">
-        <v>1.9242706393544382</v>
+        <v>1.8404907975460123</v>
       </c>
       <c r="G6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="H6" s="3">
-        <v>3279</v>
+        <v>3292</v>
       </c>
       <c r="I6" s="3">
-        <v>1820222</v>
+        <v>1560430</v>
       </c>
       <c r="J6" s="3">
-        <v>2212776</v>
+        <v>2196036</v>
       </c>
       <c r="K6" s="3">
-        <v>105688</v>
+        <v>60116</v>
       </c>
       <c r="L6" s="3">
-        <v>1.0166358595194085</v>
+        <v>1.5735883986423942</v>
       </c>
       <c r="M6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="N6" s="3">
-        <v>2974</v>
+        <v>2969</v>
       </c>
       <c r="O6" s="3">
-        <v>192716</v>
+        <v>159044</v>
       </c>
       <c r="P6" s="3">
-        <v>594732</v>
+        <v>618028</v>
       </c>
       <c r="Q6" s="3">
-        <v>13390</v>
+        <v>-16610</v>
       </c>
       <c r="R6" s="3">
-        <v>0.88195386702849388</v>
+        <v>1.1584327086882453</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1380,7 +1381,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1388,7 +1389,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1398,14 +1399,12 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <f>ETF行情数据!B9</f>
-        <v>43320</v>
+        <v>43326</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <f>ETF行情数据!B10</f>
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>23</v>
@@ -1433,27 +1432,27 @@
       </c>
       <c r="B11" s="8">
         <f>B6</f>
-        <v>3284</v>
+        <v>3320</v>
       </c>
       <c r="C11" s="6">
         <f>F6/100</f>
-        <v>1.9242706393544383E-2</v>
+        <v>1.8404907975460124E-2</v>
       </c>
       <c r="D11" s="8">
         <f>C6</f>
-        <v>436638</v>
+        <v>238988</v>
       </c>
       <c r="E11" s="8">
         <f>D11-C5</f>
-        <v>47496</v>
+        <v>80194</v>
       </c>
       <c r="F11" s="8">
         <f>D6</f>
-        <v>616440</v>
+        <v>314722</v>
       </c>
       <c r="G11" s="8">
         <f>E6</f>
-        <v>-94784</v>
+        <v>-54182</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1463,27 +1462,27 @@
       </c>
       <c r="B12" s="8">
         <f>H6</f>
-        <v>3279</v>
+        <v>3292</v>
       </c>
       <c r="C12" s="6">
         <f>L6/100</f>
-        <v>1.0166358595194085E-2</v>
+        <v>1.5735883986423942E-2</v>
       </c>
       <c r="D12" s="8">
         <f>I6</f>
-        <v>1820222</v>
+        <v>1560430</v>
       </c>
       <c r="E12" s="8">
         <f>D12-I5</f>
-        <v>-61236</v>
+        <v>321716</v>
       </c>
       <c r="F12" s="8">
         <f>J6</f>
-        <v>2212776</v>
+        <v>2196036</v>
       </c>
       <c r="G12" s="8">
         <f>K6</f>
-        <v>105688</v>
+        <v>60116</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1493,27 +1492,27 @@
       </c>
       <c r="B13" s="8">
         <f>N6</f>
-        <v>2974</v>
+        <v>2969</v>
       </c>
       <c r="C13" s="6">
         <f>R6/100</f>
-        <v>8.8195386702849387E-3</v>
+        <v>1.1584327086882453E-2</v>
       </c>
       <c r="D13" s="8">
         <f>O6</f>
-        <v>192716</v>
+        <v>159044</v>
       </c>
       <c r="E13" s="8">
         <f>D13-O5</f>
-        <v>12734</v>
+        <v>14068</v>
       </c>
       <c r="F13" s="8">
         <f>P6</f>
-        <v>594732</v>
+        <v>618028</v>
       </c>
       <c r="G13" s="8">
         <f>Q6</f>
-        <v>13390</v>
+        <v>-16610</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1533,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.58203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.75" bestFit="1" customWidth="1"/>
@@ -1684,122 +1684,122 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="B5" s="3">
         <f>[1]!WSD(B2,B4:F4,A10,A11,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>4942</v>
+        <v>4829</v>
       </c>
       <c r="C5" s="3">
-        <v>56446</v>
+        <v>71740</v>
       </c>
       <c r="D5" s="3">
-        <v>208784</v>
+        <v>166120</v>
       </c>
       <c r="E5" s="3">
-        <v>-5300</v>
+        <v>-18042</v>
       </c>
       <c r="F5" s="3">
-        <v>0.12155591572123178</v>
+        <v>-0.96390484003281374</v>
       </c>
       <c r="H5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="I5" s="3">
         <f>[1]!WSD(I2,I4:M4,A10,A11,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>5160</v>
+        <v>5061</v>
       </c>
       <c r="J5" s="3">
-        <v>577394</v>
+        <v>606928</v>
       </c>
       <c r="K5" s="3">
-        <v>380484</v>
+        <v>374312</v>
       </c>
       <c r="L5" s="3">
-        <v>-3692</v>
+        <v>-822</v>
       </c>
       <c r="M5" s="3">
-        <v>0.23310023310023309</v>
+        <v>-1.670876238585584</v>
       </c>
       <c r="O5" s="2">
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="P5" s="3">
         <f>[1]!WSD(P2,P4:T4,A10,A11,"TradingCalendar=SSE","PriceAdj=F","rptType=1","ShowParams=Y","cols=5;rows=2")</f>
-        <v>5073</v>
+        <v>4988</v>
       </c>
       <c r="Q5" s="3">
-        <v>31636</v>
+        <v>29402</v>
       </c>
       <c r="R5" s="3">
-        <v>81754</v>
+        <v>84096</v>
       </c>
       <c r="S5" s="3">
-        <v>-2662</v>
+        <v>434</v>
       </c>
       <c r="T5" s="3">
-        <v>0.17772511848341233</v>
+        <v>-1.4034394149041312</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="B6" s="3">
-        <v>4916</v>
+        <v>4718</v>
       </c>
       <c r="C6" s="3">
-        <v>58100</v>
+        <v>87706</v>
       </c>
       <c r="D6" s="3">
-        <v>202378</v>
+        <v>148418</v>
       </c>
       <c r="E6" s="3">
-        <v>-6406</v>
+        <v>-17702</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.42535953007899535</v>
+        <v>-3.1609195402298855</v>
       </c>
       <c r="H6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="I6" s="3">
-        <v>5147</v>
+        <v>4959</v>
       </c>
       <c r="J6" s="3">
-        <v>578700</v>
+        <v>809678</v>
       </c>
       <c r="K6" s="3">
-        <v>388020</v>
+        <v>409446</v>
       </c>
       <c r="L6" s="3">
-        <v>7536</v>
+        <v>35134</v>
       </c>
       <c r="M6" s="3">
-        <v>1.9432568985619899E-2</v>
+        <v>-3.0119303735575982</v>
       </c>
       <c r="O6" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="P6" s="3">
-        <v>5065</v>
+        <v>4915</v>
       </c>
       <c r="Q6" s="3">
-        <v>24470</v>
+        <v>58274</v>
       </c>
       <c r="R6" s="3">
-        <v>82660</v>
+        <v>93264</v>
       </c>
       <c r="S6" s="3">
-        <v>906</v>
+        <v>9168</v>
       </c>
       <c r="T6" s="3">
-        <v>-3.9471087428458659E-2</v>
+        <v>-2.2085157182650219</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1807,7 +1807,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1815,7 +1815,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="O7" s="2">
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1865,8 +1865,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
-        <f>豆粕行情数据!A9</f>
-        <v>43320</v>
+        <v>43326</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1888,8 +1887,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f>豆粕行情数据!A10</f>
-        <v>43321</v>
+        <v>43327</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -1917,27 +1915,27 @@
       </c>
       <c r="B12" s="8">
         <f>B6</f>
-        <v>4916</v>
+        <v>4718</v>
       </c>
       <c r="C12" s="6">
         <f>F6/100</f>
-        <v>-4.2535953007899535E-3</v>
+        <v>-3.1609195402298854E-2</v>
       </c>
       <c r="D12" s="8">
         <f>C6</f>
-        <v>58100</v>
+        <v>87706</v>
       </c>
       <c r="E12" s="8">
         <f>D12-C5</f>
-        <v>1654</v>
+        <v>15966</v>
       </c>
       <c r="F12" s="8">
         <f>D6</f>
-        <v>202378</v>
+        <v>148418</v>
       </c>
       <c r="G12" s="8">
         <f>E6</f>
-        <v>-6406</v>
+        <v>-17702</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -1947,27 +1945,27 @@
       </c>
       <c r="B13" s="8">
         <f>I6</f>
-        <v>5147</v>
+        <v>4959</v>
       </c>
       <c r="C13" s="6">
         <f>M6/100</f>
-        <v>1.9432568985619899E-4</v>
+        <v>-3.0119303735575982E-2</v>
       </c>
       <c r="D13" s="8">
         <f>J6</f>
-        <v>578700</v>
+        <v>809678</v>
       </c>
       <c r="E13" s="8">
         <f>D13-J5</f>
-        <v>1306</v>
+        <v>202750</v>
       </c>
       <c r="F13" s="8">
         <f>K6</f>
-        <v>388020</v>
+        <v>409446</v>
       </c>
       <c r="G13" s="8">
         <f>L6</f>
-        <v>7536</v>
+        <v>35134</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -1977,27 +1975,27 @@
       </c>
       <c r="B14" s="8">
         <f>P6</f>
-        <v>5065</v>
+        <v>4915</v>
       </c>
       <c r="C14" s="6">
         <f>T6/100</f>
-        <v>-3.9471087428458662E-4</v>
+        <v>-2.2085157182650219E-2</v>
       </c>
       <c r="D14" s="8">
         <f>Q6</f>
-        <v>24470</v>
+        <v>58274</v>
       </c>
       <c r="E14" s="8">
         <f>D14-Q5</f>
-        <v>-7166</v>
+        <v>28872</v>
       </c>
       <c r="F14" s="8">
         <f>R6</f>
-        <v>82660</v>
+        <v>93264</v>
       </c>
       <c r="G14" s="8">
         <f>S6</f>
-        <v>906</v>
+        <v>9168</v>
       </c>
     </row>
   </sheetData>
